--- a/00.문서작업/db구조.xlsx
+++ b/00.문서작업/db구조.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITSC\Desktop\Project\MiniProject1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sangi\OneDrive\사진\바탕 화면\Project\miniproject_1\noodle_street\00.문서작업\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5FD1FE-95A2-42D0-8F82-DF5D35F7BFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="113">
   <si>
     <t>User</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Phone No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Parking</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,19 +90,8 @@
     <t>Rating</t>
   </si>
   <si>
-    <t>Restraunt.Menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Not Null</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Restraunt.Review</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recommend</t>
   </si>
   <si>
     <t>Unique</t>
@@ -190,11 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>추천 여부
-(0 : 비추천, 1 : 추천)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -397,10 +377,6 @@
     <t>TINYINT</t>
   </si>
   <si>
-    <t>TINYINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INT</t>
   </si>
   <si>
@@ -492,13 +468,25 @@
   </si>
   <si>
     <t>SMALLINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phone_No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RestrauntMenu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RestrauntReview</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -972,6 +960,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -980,9 +971,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1263,11 +1251,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:H53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1284,29 +1272,29 @@
     <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -1317,17 +1305,17 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G3" s="8">
         <v>1</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="15" t="s">
         <v>2</v>
       </c>
@@ -1336,17 +1324,17 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="26"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="15" t="s">
         <v>3</v>
       </c>
@@ -1355,17 +1343,17 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="26"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="15" t="s">
         <v>7</v>
       </c>
@@ -1374,17 +1362,17 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="26"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="15" t="s">
         <v>4</v>
       </c>
@@ -1393,17 +1381,17 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="26"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="15" t="s">
         <v>5</v>
       </c>
@@ -1412,17 +1400,17 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="27"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="16" t="s">
         <v>6</v>
       </c>
@@ -1431,41 +1419,41 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G9" s="5">
         <v>0</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="26" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -1476,17 +1464,17 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G12" s="8">
         <v>1</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="26"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="15" t="s">
         <v>11</v>
       </c>
@@ -1495,17 +1483,17 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="26"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="15" t="s">
         <v>12</v>
       </c>
@@ -1514,555 +1502,555 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="26"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="15" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D15" s="11">
         <v>1</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="26"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D16" s="11">
         <v>0</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="26"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D17" s="11">
         <v>0</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="26"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D18" s="11">
         <v>0</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="26"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D19" s="11">
         <v>0</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="26"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D20" s="11">
         <v>0</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G20" s="2">
         <v>0</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="26"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D21" s="11">
         <v>0</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="26"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D22" s="11">
         <v>0</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="26"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D23" s="11">
         <v>0</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="26"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D24" s="11">
         <v>0</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="26"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D25" s="11">
         <v>0</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="26"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D26" s="11">
         <v>0</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G26" s="2">
         <v>0</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="26"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D27" s="11">
         <v>0</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G27" s="2">
         <v>0</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="26"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D28" s="11">
         <v>0</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G28" s="2">
         <v>0</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="26"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D29" s="11">
         <v>0</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G29" s="2">
         <v>0</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="26"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D30" s="11">
         <v>0</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G30" s="2">
         <v>0</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="26"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="15" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D31" s="11">
         <v>0</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G31" s="2">
         <v>0</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="26"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D32" s="11">
         <v>0</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G32" s="2">
         <v>0</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="26"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D33" s="11">
         <v>0</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G33" s="2">
         <v>0</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="26"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D34" s="11">
         <v>0</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G34" s="2">
         <v>0</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="26"/>
+      <c r="B35" s="27"/>
       <c r="C35" s="15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D35" s="11">
         <v>0</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G35" s="2">
         <v>0</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="26"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D36" s="11">
         <v>0</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="27"/>
+      <c r="C37" s="15" t="s">
         <v>110</v>
-      </c>
-      <c r="G36" s="2">
-        <v>0</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="26"/>
-      <c r="C37" s="15" t="s">
-        <v>13</v>
       </c>
       <c r="D37" s="11">
         <v>0</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G37" s="2">
         <v>0</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="26"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" s="11">
         <v>0</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G38" s="2">
         <v>0</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="26"/>
+      <c r="B39" s="27"/>
       <c r="C39" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39" s="22">
         <v>1</v>
       </c>
       <c r="E39" s="23"/>
       <c r="F39" s="23" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G39" s="23">
         <v>0</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="26"/>
+      <c r="B40" s="27"/>
       <c r="C40" s="21" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D40" s="22">
         <v>1</v>
       </c>
       <c r="E40" s="23"/>
       <c r="F40" s="23" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G40" s="23">
         <v>0</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="27"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D41" s="12">
         <v>0</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G41" s="5">
         <v>0</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="43" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="25" t="s">
-        <v>17</v>
+      <c r="B44" s="26" t="s">
+        <v>111</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>10</v>
@@ -2072,101 +2060,101 @@
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G44" s="8">
+        <v>1</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="27"/>
+      <c r="C45" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G44" s="8">
-        <v>1</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="26"/>
-      <c r="C45" s="15" t="s">
-        <v>99</v>
-      </c>
       <c r="D45" s="11">
         <v>1</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G45" s="2">
         <v>0</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="26"/>
+      <c r="B46" s="27"/>
       <c r="C46" s="21" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D46" s="11">
         <v>1</v>
       </c>
       <c r="E46" s="23"/>
       <c r="F46" s="23" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G46" s="2">
         <v>0</v>
       </c>
-      <c r="H46" s="28" t="s">
-        <v>89</v>
+      <c r="H46" s="25" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="27"/>
+      <c r="B47" s="28"/>
       <c r="C47" s="16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D47" s="12">
         <v>1</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G47" s="5">
         <v>0</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="49" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E49" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="25" t="s">
-        <v>19</v>
+      <c r="B50" s="26" t="s">
+        <v>112</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>1</v>
@@ -2176,99 +2164,80 @@
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="27"/>
+      <c r="C51" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G50" s="3">
-        <v>1</v>
-      </c>
-      <c r="H50" s="7" t="s">
+      <c r="D51" s="11">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="27"/>
+      <c r="C52" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="11">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="26"/>
-      <c r="C51" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D51" s="11">
-        <v>1</v>
-      </c>
-      <c r="E51" s="2" t="s">
+    <row r="53" spans="2:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="28"/>
+      <c r="C53" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="12">
+        <v>0</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0</v>
+      </c>
+      <c r="H53" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G51" s="2">
-        <v>0</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="26"/>
-      <c r="C52" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D52" s="11">
-        <v>1</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G52" s="2">
-        <v>0</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="26"/>
-      <c r="C53" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53" s="22">
-        <v>1</v>
-      </c>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="G53" s="23">
-        <v>0</v>
-      </c>
-      <c r="H53" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="27"/>
-      <c r="C54" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D54" s="12">
-        <v>0</v>
-      </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G54" s="5">
-        <v>0</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B3:B9"/>
-    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="B50:B53"/>
     <mergeCell ref="B12:B41"/>
     <mergeCell ref="B44:B47"/>
   </mergeCells>

--- a/00.문서작업/db구조.xlsx
+++ b/00.문서작업/db구조.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sangi\OneDrive\사진\바탕 화면\Project\miniproject_1\noodle_street\00.문서작업\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITSC\Desktop\Project\MiniProject1\noodle_street\00.문서작업\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5FD1FE-95A2-42D0-8F82-DF5D35F7BFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,33 +24,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="113">
-  <si>
-    <t>User</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="155">
   <si>
     <t>PK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Birth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Email</t>
+    <t>Foreign Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restraunt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -59,22 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Foreign Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Restraunt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Address</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,26 +82,6 @@
   </si>
   <si>
     <t>유저 고유 키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 생년월일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 이메일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -187,177 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mon_Busi_Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mon_Break_Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mon_Finish_Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tue_Busi_Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tue_Break_Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tue_Finish_Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wed_Busi_Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wed_Break_Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wed_Finish_Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thu_Busi_Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thu_Break_Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thu_Finish_Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fri_Break_Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fri_Busi_Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fri_Finish_Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sat_Break_Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sat_Finish_Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sat_Busi_Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sun_Busi_Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sun_Break_Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sun_Finish_Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월요일 영업시간
-(HH:MM - HH:MM 양식)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월요일 브레이크 시간
-(HH:MM - HH:MM 양식)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월요일 마감 시간
-(HH:MM 양식)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화요일 영업시간
-(HH:MM - HH:MM 양식)</t>
-  </si>
-  <si>
-    <t>화요일 브레이크 시간
-(HH:MM - HH:MM 양식)</t>
-  </si>
-  <si>
-    <t>화요일 마감 시간
-(HH:MM 양식)</t>
-  </si>
-  <si>
-    <t>수요일 영업시간
-(HH:MM - HH:MM 양식)</t>
-  </si>
-  <si>
-    <t>수요일 브레이크 시간
-(HH:MM - HH:MM 양식)</t>
-  </si>
-  <si>
-    <t>수요일 마감 시간
-(HH:MM 양식)</t>
-  </si>
-  <si>
-    <t>목요일 영업시간
-(HH:MM - HH:MM 양식)</t>
-  </si>
-  <si>
-    <t>목요일 브레이크 시간
-(HH:MM - HH:MM 양식)</t>
-  </si>
-  <si>
-    <t>목요일 마감 시간
-(HH:MM 양식)</t>
-  </si>
-  <si>
-    <t>금요일 영업시간
-(HH:MM - HH:MM 양식)</t>
-  </si>
-  <si>
-    <t>금요일 브레이크 시간
-(HH:MM - HH:MM 양식)</t>
-  </si>
-  <si>
-    <t>금요일 마감 시간
-(HH:MM 양식)</t>
-  </si>
-  <si>
-    <t>토요일 영업시간
-(HH:MM - HH:MM 양식)</t>
-  </si>
-  <si>
-    <t>토요일 브레이크 시간
-(HH:MM - HH:MM 양식)</t>
-  </si>
-  <si>
-    <t>토요일 마감 시간
-(HH:MM 양식)</t>
-  </si>
-  <si>
-    <t>일요일 영업시간
-(HH:MM - HH:MM 양식)</t>
-  </si>
-  <si>
-    <t>일요일 브레이크 시간
-(HH:MM - HH:MM 양식)</t>
-  </si>
-  <si>
-    <t>일요일 마감 시간
-(HH:MM 양식)</t>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -380,19 +160,6 @@
     <t>INT</t>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 성별
-(0 : 남성, 1 : 여성)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TINYINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TEXT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -438,14 +205,6 @@
   </si>
   <si>
     <t>VARCHAR(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(13)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -480,13 +239,348 @@
   </si>
   <si>
     <t>RestrauntReview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User
+(AbstactUser)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_superuser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_joined</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile_image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon_start</t>
+  </si>
+  <si>
+    <t>mon_end</t>
+  </si>
+  <si>
+    <t>mon_break_start</t>
+  </si>
+  <si>
+    <t>mon_break_end</t>
+  </si>
+  <si>
+    <t>mon_last_order</t>
+  </si>
+  <si>
+    <t>tue_start</t>
+  </si>
+  <si>
+    <t>tue_end</t>
+  </si>
+  <si>
+    <t>tue_break_start</t>
+  </si>
+  <si>
+    <t>tue_break_end</t>
+  </si>
+  <si>
+    <t>tue_last_order</t>
+  </si>
+  <si>
+    <t>wed_start</t>
+  </si>
+  <si>
+    <t>wed_end</t>
+  </si>
+  <si>
+    <t>wed_break_start</t>
+  </si>
+  <si>
+    <t>wed_break_end</t>
+  </si>
+  <si>
+    <t>wed_last_order</t>
+  </si>
+  <si>
+    <t>thu_start</t>
+  </si>
+  <si>
+    <t>thu_end</t>
+  </si>
+  <si>
+    <t>thu_break_start</t>
+  </si>
+  <si>
+    <t>thu_break_end</t>
+  </si>
+  <si>
+    <t>thu_last_order</t>
+  </si>
+  <si>
+    <t>fri_start</t>
+  </si>
+  <si>
+    <t>fri_end</t>
+  </si>
+  <si>
+    <t>fri_break_start</t>
+  </si>
+  <si>
+    <t>fri_break_end</t>
+  </si>
+  <si>
+    <t>fri_last_order</t>
+  </si>
+  <si>
+    <t>sat_start</t>
+  </si>
+  <si>
+    <t>sat_end</t>
+  </si>
+  <si>
+    <t>sat_break_start</t>
+  </si>
+  <si>
+    <t>sat_break_end</t>
+  </si>
+  <si>
+    <t>sat_last_order</t>
+  </si>
+  <si>
+    <t>sun_start</t>
+  </si>
+  <si>
+    <t>sun_end</t>
+  </si>
+  <si>
+    <t>sun_break_start</t>
+  </si>
+  <si>
+    <t>sun_break_end</t>
+  </si>
+  <si>
+    <t>sun_last_order</t>
+  </si>
+  <si>
+    <t>월요일 영업 시작</t>
+  </si>
+  <si>
+    <t>월요일 영업 종료</t>
+  </si>
+  <si>
+    <t>월요일 휴식 시작</t>
+  </si>
+  <si>
+    <t>월요일 휴식 종료</t>
+  </si>
+  <si>
+    <t>월요일 주문 마감</t>
+  </si>
+  <si>
+    <t>화요일 영업 시작</t>
+  </si>
+  <si>
+    <t>화요일 영업 종료</t>
+  </si>
+  <si>
+    <t>화요일 휴식 시작</t>
+  </si>
+  <si>
+    <t>화요일 휴식 종료</t>
+  </si>
+  <si>
+    <t>화요일 주문 마감</t>
+  </si>
+  <si>
+    <t>수요일 영업 시작</t>
+  </si>
+  <si>
+    <t>수요일 영업 종료</t>
+  </si>
+  <si>
+    <t>수요일 휴식 시작</t>
+  </si>
+  <si>
+    <t>수요일 휴식 종료</t>
+  </si>
+  <si>
+    <t>수요일 주문 마감</t>
+  </si>
+  <si>
+    <t>목요일 영업 시작</t>
+  </si>
+  <si>
+    <t>목요일 영업 종료</t>
+  </si>
+  <si>
+    <t>목요일 휴식 시작</t>
+  </si>
+  <si>
+    <t>목요일 휴식 종료</t>
+  </si>
+  <si>
+    <t>목요일 주문 마감</t>
+  </si>
+  <si>
+    <t>금요일 영업 시작</t>
+  </si>
+  <si>
+    <t>금요일 영업 종료</t>
+  </si>
+  <si>
+    <t>금요일 휴식 시작</t>
+  </si>
+  <si>
+    <t>금요일 휴식 종료</t>
+  </si>
+  <si>
+    <t>금요일 주문 마감</t>
+  </si>
+  <si>
+    <t>토요일 영업 시작</t>
+  </si>
+  <si>
+    <t>토요일 영업 종료</t>
+  </si>
+  <si>
+    <t>토요일 휴식 시작</t>
+  </si>
+  <si>
+    <t>토요일 휴식 종료</t>
+  </si>
+  <si>
+    <t>토요일 주문 마감</t>
+  </si>
+  <si>
+    <t>일요일 영업 시작</t>
+  </si>
+  <si>
+    <t>일요일 영업 종료</t>
+  </si>
+  <si>
+    <t>일요일 휴식 시작</t>
+  </si>
+  <si>
+    <t>일요일 휴식 종료</t>
+  </si>
+  <si>
+    <t>일요일 주문 마감</t>
+  </si>
+  <si>
+    <t>TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활성화 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 권한 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 로그인 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 가입 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 이미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -527,7 +621,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -878,13 +972,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -971,6 +1078,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1251,11 +1364,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1272,974 +1385,1354 @@
     <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="18" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
-        <v>0</v>
+      <c r="B3" s="30" t="s">
+        <v>55</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="10">
         <v>1</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="G3" s="8">
         <v>1</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="27"/>
-      <c r="C4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="11">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>22</v>
+      <c r="C4" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="27"/>
-      <c r="C5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>23</v>
+      <c r="C5" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="27"/>
-      <c r="C6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>24</v>
+      <c r="C6" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="27"/>
-      <c r="C7" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>25</v>
+      <c r="C7" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="27"/>
-      <c r="C8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="28"/>
-      <c r="C9" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="12">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="10">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="8">
-        <v>1</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="27"/>
+      <c r="C9" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="27"/>
+      <c r="C10" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="27"/>
+      <c r="C11" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="27"/>
+      <c r="C12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="27"/>
       <c r="C13" s="15" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="D13" s="11">
         <v>1</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="27"/>
       <c r="C14" s="15" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D14" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="27"/>
-      <c r="C15" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="11">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="27"/>
-      <c r="C16" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="11">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="27"/>
-      <c r="C17" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="11">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>62</v>
+      <c r="H14" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="28"/>
+      <c r="C15" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="27"/>
-      <c r="C18" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="11">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>63</v>
+      <c r="B18" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="27"/>
       <c r="C19" s="15" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="D19" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
       </c>
-      <c r="H19" s="17" t="s">
-        <v>64</v>
+      <c r="H19" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="27"/>
       <c r="C20" s="15" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D20" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="G20" s="2">
         <v>0</v>
       </c>
-      <c r="H20" s="17" t="s">
-        <v>65</v>
+      <c r="H20" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="27"/>
       <c r="C21" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D21" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
       </c>
-      <c r="H21" s="17" t="s">
-        <v>66</v>
+      <c r="H21" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="27"/>
       <c r="C22" s="15" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D22" s="11">
         <v>0</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
       </c>
-      <c r="H22" s="17" t="s">
-        <v>67</v>
+      <c r="H22" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="27"/>
       <c r="C23" s="15" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D23" s="11">
         <v>0</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
       </c>
-      <c r="H23" s="17" t="s">
-        <v>68</v>
+      <c r="H23" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="27"/>
       <c r="C24" s="15" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="D24" s="11">
         <v>0</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
       </c>
-      <c r="H24" s="17" t="s">
-        <v>69</v>
+      <c r="H24" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="27"/>
       <c r="C25" s="15" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="D25" s="11">
         <v>0</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
       </c>
-      <c r="H25" s="17" t="s">
-        <v>70</v>
+      <c r="H25" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="27"/>
       <c r="C26" s="15" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="D26" s="11">
         <v>0</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="G26" s="2">
         <v>0</v>
       </c>
-      <c r="H26" s="17" t="s">
-        <v>71</v>
+      <c r="H26" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="27"/>
       <c r="C27" s="15" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="D27" s="11">
         <v>0</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="G27" s="2">
         <v>0</v>
       </c>
-      <c r="H27" s="17" t="s">
-        <v>72</v>
+      <c r="H27" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="27"/>
       <c r="C28" s="15" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D28" s="11">
         <v>0</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="G28" s="2">
         <v>0</v>
       </c>
-      <c r="H28" s="17" t="s">
-        <v>73</v>
+      <c r="H28" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="27"/>
       <c r="C29" s="15" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="D29" s="11">
         <v>0</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="G29" s="2">
         <v>0</v>
       </c>
-      <c r="H29" s="17" t="s">
-        <v>74</v>
+      <c r="H29" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="27"/>
       <c r="C30" s="15" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="D30" s="11">
         <v>0</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="G30" s="2">
         <v>0</v>
       </c>
-      <c r="H30" s="17" t="s">
-        <v>75</v>
+      <c r="H30" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="27"/>
       <c r="C31" s="15" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D31" s="11">
         <v>0</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="G31" s="2">
         <v>0</v>
       </c>
-      <c r="H31" s="17" t="s">
-        <v>76</v>
+      <c r="H31" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="27"/>
       <c r="C32" s="15" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D32" s="11">
         <v>0</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="G32" s="2">
         <v>0</v>
       </c>
-      <c r="H32" s="17" t="s">
-        <v>77</v>
+      <c r="H32" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="27"/>
       <c r="C33" s="15" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="D33" s="11">
         <v>0</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="G33" s="2">
         <v>0</v>
       </c>
-      <c r="H33" s="17" t="s">
-        <v>78</v>
+      <c r="H33" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="27"/>
       <c r="C34" s="15" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D34" s="11">
         <v>0</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="G34" s="2">
         <v>0</v>
       </c>
-      <c r="H34" s="17" t="s">
-        <v>79</v>
+      <c r="H34" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="27"/>
       <c r="C35" s="15" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="D35" s="11">
         <v>0</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="G35" s="2">
         <v>0</v>
       </c>
-      <c r="H35" s="17" t="s">
-        <v>80</v>
+      <c r="H35" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="27"/>
       <c r="C36" s="15" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="D36" s="11">
         <v>0</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="G36" s="2">
         <v>0</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="27"/>
       <c r="C37" s="15" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D37" s="11">
         <v>0</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="G37" s="2">
         <v>0</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="27"/>
       <c r="C38" s="15" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="D38" s="11">
         <v>0</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="G38" s="2">
         <v>0</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="27"/>
-      <c r="C39" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="22">
-        <v>1</v>
-      </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="G39" s="23">
-        <v>0</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>107</v>
+      <c r="C39" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="11">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="27"/>
-      <c r="C40" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40" s="22">
-        <v>1</v>
-      </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="G40" s="23">
-        <v>0</v>
-      </c>
-      <c r="H40" s="24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="28"/>
-      <c r="C41" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="12">
-        <v>0</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5" t="s">
+      <c r="C40" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="11">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="27"/>
+      <c r="C41" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="11">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="27"/>
+      <c r="C42" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G41" s="5">
-        <v>0</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="10">
-        <v>1</v>
-      </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G44" s="8">
-        <v>1</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="11">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="27"/>
+      <c r="C43" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="11">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="27"/>
+      <c r="C44" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="11">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="27"/>
       <c r="C45" s="15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D45" s="11">
-        <v>1</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="G45" s="2">
         <v>0</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H45" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="27"/>
-      <c r="C46" s="21" t="s">
-        <v>82</v>
+      <c r="C46" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="D46" s="11">
-        <v>1</v>
-      </c>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23" t="s">
-        <v>102</v>
+        <v>0</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="G46" s="2">
         <v>0</v>
       </c>
-      <c r="H46" s="25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="28"/>
-      <c r="C47" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" s="12">
-        <v>1</v>
-      </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G47" s="5">
-        <v>0</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" s="20" t="s">
-        <v>18</v>
+      <c r="H46" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="27"/>
+      <c r="C47" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="11">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="27"/>
+      <c r="C48" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="11">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="27"/>
+      <c r="C49" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="11">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="13">
-        <v>1</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G50" s="3">
-        <v>1</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>32</v>
+      <c r="B50" s="27"/>
+      <c r="C50" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="11">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="27"/>
       <c r="C51" s="15" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D51" s="11">
-        <v>1</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="G51" s="2">
         <v>0</v>
       </c>
-      <c r="H51" s="4" t="s">
-        <v>33</v>
+      <c r="H51" s="17" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="27"/>
       <c r="C52" s="15" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D52" s="11">
-        <v>1</v>
-      </c>
-      <c r="E52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="27"/>
+      <c r="C53" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="11">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="27"/>
+      <c r="C54" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="11">
+        <v>0</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0</v>
+      </c>
+      <c r="H54" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="27"/>
+      <c r="C55" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" s="11">
+        <v>0</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="27"/>
+      <c r="C56" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="11">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="27"/>
+      <c r="C57" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" s="11">
+        <v>0</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="27"/>
+      <c r="C58" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="11">
+        <v>0</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="27"/>
+      <c r="C59" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="22">
+        <v>1</v>
+      </c>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G59" s="23">
+        <v>0</v>
+      </c>
+      <c r="H59" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="27"/>
+      <c r="C60" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="22">
+        <v>1</v>
+      </c>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G60" s="23">
+        <v>0</v>
+      </c>
+      <c r="H60" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="28"/>
+      <c r="C61" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="12">
+        <v>0</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G52" s="2">
-        <v>0</v>
-      </c>
-      <c r="H52" s="4" t="s">
+      <c r="G61" s="5">
+        <v>0</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="10">
+        <v>1</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G64" s="8">
+        <v>1</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="27"/>
+      <c r="C65" s="15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="53" spans="2:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="28"/>
-      <c r="C53" s="16" t="s">
+      <c r="D65" s="11">
+        <v>1</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="27"/>
+      <c r="C66" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" s="11">
+        <v>1</v>
+      </c>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0</v>
+      </c>
+      <c r="H66" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="28"/>
+      <c r="C67" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="12">
+        <v>1</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G67" s="5">
+        <v>0</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="69" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="13">
+        <v>1</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="27"/>
+      <c r="C71" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" s="11">
+        <v>1</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71" s="2">
+        <v>0</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="27"/>
+      <c r="C72" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D53" s="12">
-        <v>0</v>
-      </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G53" s="5">
-        <v>0</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>38</v>
+      <c r="D72" s="11">
+        <v>1</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="28"/>
+      <c r="C73" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="12">
+        <v>0</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73" s="5">
+        <v>0</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B12:B41"/>
-    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B18:B61"/>
+    <mergeCell ref="B64:B67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
